--- a/Code/R/Magnan/AntigenPro_IT.xlsx
+++ b/Code/R/Magnan/AntigenPro_IT.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="2" r:id="rId1"/>
     <sheet name="Enrichment" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Performance" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1475">
   <si>
     <t>ID</t>
   </si>
@@ -4415,10 +4417,31 @@
     <t>BH12810</t>
   </si>
   <si>
-    <t>TopRank%</t>
-  </si>
-  <si>
     <t>Enrichment</t>
+  </si>
+  <si>
+    <t>TopRank</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -4963,6 +4986,1985 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$C$2:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>4.9897470950102503E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9897470950102503E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1264524948735499E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.80997949419002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4251537935748504E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8605604921394401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0909090909090898E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.112781954887218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12850307587149701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14695830485304201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15926179084073799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16951469583048501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.180451127819549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19480519480519501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20232399179767599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21599453178400499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.223513328776487</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23650034176349999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25017088174982899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26384142173615899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27614490772385503</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.287764866712235</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29870129870129902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.30690362269309601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.31715652768284303</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.328776486671224</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34381408065618602</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35406698564593297</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36226930963773102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.37525632262474401</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.383458646616541</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.392344497607655</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.39849624060150401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41011619958988399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.420369104579631</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.43062200956937802</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.43609022556390997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44155844155844198</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.451811346548189</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.46069719753930299</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.47368421052631599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.48257006151742998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49213943950786099</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.49829118250170901</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.51469583048530398</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52221462747778502</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.533834586466165</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.548188653451811</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.56185919343814095</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56937799043062198</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58373205741626799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.593301435406699</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.59671907040328098</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.602870813397129</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60902255639097702</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61859193438140803</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.62747778537252197</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63841421736158599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65003417634996596</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.66165413533834605</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.67259056732740896</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.67805878332194103</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.68762816131237203</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.69788106630211899</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.70539986329460003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.71496924128503103</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.72248803827751196</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.72863978127135998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.74162679425837297</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.74982911825017096</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.76144907723855104</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.76623376623376604</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.77306903622693102</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.78195488721804496</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.79015721120984295</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.80177717019822303</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.81066302118933697</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.82433356117566603</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83458646616541399</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.84552289815447701</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.85645933014354103</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85919343814080695</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.86671223513328799</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.87286397812713601</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.88243335611756701</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.89336978810663004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.90088858509911096</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.90977443609022601</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.917976760082023</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.92344497607655496</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.92891319207108702</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.93369788106630203</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.94121667805878295</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94873547505126499</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94873547505126499</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95078605604921396</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.9897470950102503E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.9897470950102503E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.9897470950102503E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sensitivity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$D$2:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98630136986301398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98630136986301398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98630136986301398</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97260273972602695</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97260273972602695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95890410958904104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.931506849315068</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.931506849315068</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.931506849315068</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.931506849315068</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91780821917808197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91780821917808197</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91780821917808197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91780821917808197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91780821917808197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.91780821917808197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87671232876712302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86301369863013699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.84931506849315097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82191780821917804</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82191780821917804</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.80821917808219201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.78082191780821897</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76712328767123295</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76712328767123295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76712328767123295</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.73972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.73972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.73972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.73972602739726001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.72602739726027399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72602739726027399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.72602739726027399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.71232876712328796</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.69863013698630105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.69863013698630105</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.69863013698630105</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67123287671232901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.67123287671232901</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.65753424657534199</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.65753424657534199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.65753424657534199</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.65753424657534199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.65753424657534199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.65753424657534199</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64383561643835596</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.64383561643835596</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.63013698630137005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.61643835616438403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61643835616438403</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61643835616438403</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.61643835616438403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.61643835616438403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58904109589041098</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58904109589041098</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.58904109589041098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.56164383561643805</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.56164383561643805</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.54794520547945202</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.534246575342466</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.52054794520547898</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.50684931506849296</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.50684931506849296</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.50684931506849296</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.50684931506849296</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.50684931506849296</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.50684931506849296</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.50684931506849296</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50684931506849296</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.47945205479452102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.47945205479452102</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.465753424657534</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.465753424657534</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.45205479452054798</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.43835616438356201</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.397260273972603</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.38356164383561597</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.38356164383561597</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.35616438356164398</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.35616438356164398</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.32876712328767099</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.27397260273972601</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.26027397260273999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.219178082191781</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.164383561643836</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.13698630136986301</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.123287671232877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.123287671232877</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.2191780821917804E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.8493150684931503E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.3698630136986301E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Performance!$B$2:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Performance!$E$2:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.43884892086331E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6330935251798593E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.51079136690647E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.09352517985612E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3884892086330902E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6906474820143905E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4172661870503596E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10359712230215801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11726618705036</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12949640287769801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14100719424460401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.156115107913669</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.164028776978417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.179136690647482</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18705035971223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20071942446043201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21510791366906501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.22949640287769801</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.242446043165468</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25683453237410098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.269064748201439</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.27841726618704998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.290647482014389</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30287769784172702</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.31942446043165501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.33165467625899298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34100719424460402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35467625899280603</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.36330935251798602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.37410071942445999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.380575539568345</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.39280575539568302</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.403597122302158</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41510791366906502</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.42086330935251798</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.42661870503597099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43812949640287802</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.448201438848921</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.46187050359712201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.47122302158273399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48273381294964002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.48920863309352502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.50719424460431695</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.51510791366906505</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52733812949640302</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.54244604316546796</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.55683453237410097</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56474820143884896</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58057553956834496</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59064748201438799</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.59496402877697796</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.60215827338129502</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.60863309352518002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61870503597122295</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.62805755395683405</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.63956834532374096</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65323741007194203</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.66546762589928099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.67697841726618702</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.68417266187050396</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.694244604316547</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.70575539568345302</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.71438848920863296</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.72517985611510805</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.73381294964028798</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.74028776978417299</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75395683453237405</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.76258992805755399</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77482014388489195</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.77985611510791397</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.78705035971223003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.79640287769784202</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.80647482014388505</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.81870503597122302</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.82877697841726605</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84316546762589895</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.85467625899280597</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.86690647482014405</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.880575539568345</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.88417266187050403</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.89208633093525203</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.91007194244604295</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.92302158273381296</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.93381294964028805</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.94388489208633097</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.95467625899280595</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.963309352517986</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.97050359712230205</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.97625899280575501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.98417266187050401</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.99424460431654704</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.99496402877697798</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="85821312"/>
+        <c:axId val="85822848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85821312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85822848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85822848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85821312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -21369,18 +23371,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1466</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -22187,4 +24189,2329 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G2">
+        <v>4.9897470950102503E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G3">
+        <v>4.9897470950102503E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>5.1264524948735499E-2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.43884892086331E-3</v>
+      </c>
+      <c r="F4">
+        <v>8.4789860315095198E-3</v>
+      </c>
+      <c r="G4">
+        <v>4.9965776865160801E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.04</v>
+      </c>
+      <c r="C5">
+        <v>5.80997949419002E-2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8.6330935251798593E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.0840634964058101E-2</v>
+      </c>
+      <c r="G5">
+        <v>5.0310130944176398E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>6.4251537935748504E-2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.51079136690647E-2</v>
+      </c>
+      <c r="F6">
+        <v>2.7655470221591601E-2</v>
+      </c>
+      <c r="G6">
+        <v>5.0624133148404998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.06</v>
+      </c>
+      <c r="C7">
+        <v>7.8605604921394401E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.98630136986301398</v>
+      </c>
+      <c r="E7">
+        <v>3.09352517985612E-2</v>
+      </c>
+      <c r="F7">
+        <v>2.1973712769754399E-2</v>
+      </c>
+      <c r="G7">
+        <v>5.0739957716701901E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.98630136986301398</v>
+      </c>
+      <c r="E8">
+        <v>4.3884892086330902E-2</v>
+      </c>
+      <c r="F8">
+        <v>3.2625956606574101E-2</v>
+      </c>
+      <c r="G8">
+        <v>5.1391862955032099E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.08</v>
+      </c>
+      <c r="C9">
+        <v>0.112781954887218</v>
+      </c>
+      <c r="D9">
+        <v>0.98630136986301398</v>
+      </c>
+      <c r="E9">
+        <v>6.6906474820143905E-2</v>
+      </c>
+      <c r="F9">
+        <v>4.7247501384237299E-2</v>
+      </c>
+      <c r="G9">
+        <v>5.2593133674214802E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.09</v>
+      </c>
+      <c r="C10">
+        <v>0.12850307587149701</v>
+      </c>
+      <c r="D10">
+        <v>0.97260273972602695</v>
+      </c>
+      <c r="E10">
+        <v>8.4172661870503596E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.5222641880705801E-2</v>
+      </c>
+      <c r="G10">
+        <v>5.2827380952381001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.14695830485304201</v>
+      </c>
+      <c r="D11">
+        <v>0.97260273972602695</v>
+      </c>
+      <c r="E11">
+        <v>0.10359712230215801</v>
+      </c>
+      <c r="F11">
+        <v>5.5354597827267503E-2</v>
+      </c>
+      <c r="G11">
+        <v>5.3910402429764602E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.11</v>
+      </c>
+      <c r="C12">
+        <v>0.15926179084073799</v>
+      </c>
+      <c r="D12">
+        <v>0.95890410958904104</v>
+      </c>
+      <c r="E12">
+        <v>0.11726618705036</v>
+      </c>
+      <c r="F12">
+        <v>5.2291421152534899E-2</v>
+      </c>
+      <c r="G12">
+        <v>5.3970701619121E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.12</v>
+      </c>
+      <c r="C13">
+        <v>0.16951469583048501</v>
+      </c>
+      <c r="D13">
+        <v>0.931506849315068</v>
+      </c>
+      <c r="E13">
+        <v>0.12949640287769801</v>
+      </c>
+      <c r="F13">
+        <v>3.9964145155328E-2</v>
+      </c>
+      <c r="G13">
+        <v>5.3208137715180001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.13</v>
+      </c>
+      <c r="C14">
+        <v>0.180451127819549</v>
+      </c>
+      <c r="D14">
+        <v>0.931506849315068</v>
+      </c>
+      <c r="E14">
+        <v>0.14100719424460401</v>
+      </c>
+      <c r="F14">
+        <v>4.5863083179736003E-2</v>
+      </c>
+      <c r="G14">
+        <v>5.3882725832012701E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.19480519480519501</v>
+      </c>
+      <c r="D15">
+        <v>0.931506849315068</v>
+      </c>
+      <c r="E15">
+        <v>0.156115107913669</v>
+      </c>
+      <c r="F15">
+        <v>5.3176457485145497E-2</v>
+      </c>
+      <c r="G15">
+        <v>5.4794520547945202E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.15</v>
+      </c>
+      <c r="C16">
+        <v>0.20232399179767599</v>
+      </c>
+      <c r="D16">
+        <v>0.931506849315068</v>
+      </c>
+      <c r="E16">
+        <v>0.164028776978417</v>
+      </c>
+      <c r="F16">
+        <v>5.6846491928184598E-2</v>
+      </c>
+      <c r="G16">
+        <v>5.5284552845528502E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.16</v>
+      </c>
+      <c r="C17">
+        <v>0.21599453178400499</v>
+      </c>
+      <c r="D17">
+        <v>0.91780821917808197</v>
+      </c>
+      <c r="E17">
+        <v>0.179136690647482</v>
+      </c>
+      <c r="F17">
+        <v>5.5640405170647403E-2</v>
+      </c>
+      <c r="G17">
+        <v>5.5463576158940403E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.17</v>
+      </c>
+      <c r="C18">
+        <v>0.223513328776487</v>
+      </c>
+      <c r="D18">
+        <v>0.91780821917808197</v>
+      </c>
+      <c r="E18">
+        <v>0.18705035971223</v>
+      </c>
+      <c r="F18">
+        <v>5.9194983556091402E-2</v>
+      </c>
+      <c r="G18">
+        <v>5.59732664995823E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.18</v>
+      </c>
+      <c r="C19">
+        <v>0.23650034176349999</v>
+      </c>
+      <c r="D19">
+        <v>0.91780821917808197</v>
+      </c>
+      <c r="E19">
+        <v>0.20071942446043201</v>
+      </c>
+      <c r="F19">
+        <v>6.51618499631164E-2</v>
+      </c>
+      <c r="G19">
+        <v>5.6876061120543303E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.19</v>
+      </c>
+      <c r="C20">
+        <v>0.25017088174982899</v>
+      </c>
+      <c r="D20">
+        <v>0.91780821917808197</v>
+      </c>
+      <c r="E20">
+        <v>0.21510791366906501</v>
+      </c>
+      <c r="F20">
+        <v>7.1243021143781796E-2</v>
+      </c>
+      <c r="G20">
+        <v>5.78583765112263E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.26384142173615899</v>
+      </c>
+      <c r="D21">
+        <v>0.91780821917808197</v>
+      </c>
+      <c r="E21">
+        <v>0.22949640287769801</v>
+      </c>
+      <c r="F21">
+        <v>7.7156477617285807E-2</v>
+      </c>
+      <c r="G21">
+        <v>5.88752196836555E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.21</v>
+      </c>
+      <c r="C22">
+        <v>0.27614490772385503</v>
+      </c>
+      <c r="D22">
+        <v>0.91780821917808197</v>
+      </c>
+      <c r="E22">
+        <v>0.242446043165468</v>
+      </c>
+      <c r="F22">
+        <v>8.2361139811331002E-2</v>
+      </c>
+      <c r="G22">
+        <v>5.9821428571428602E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.22</v>
+      </c>
+      <c r="C23">
+        <v>0.287764866712235</v>
+      </c>
+      <c r="D23">
+        <v>0.87671232876712302</v>
+      </c>
+      <c r="E23">
+        <v>0.25683453237410098</v>
+      </c>
+      <c r="F23">
+        <v>6.7136494126548499E-2</v>
+      </c>
+      <c r="G23">
+        <v>5.8340929808568802E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.23</v>
+      </c>
+      <c r="C24">
+        <v>0.29870129870129902</v>
+      </c>
+      <c r="D24">
+        <v>0.86301369863013699</v>
+      </c>
+      <c r="E24">
+        <v>0.269064748201439</v>
+      </c>
+      <c r="F24">
+        <v>6.5361866996110796E-2</v>
+      </c>
+      <c r="G24">
+        <v>5.8387395736793302E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.24</v>
+      </c>
+      <c r="C25">
+        <v>0.30690362269309601</v>
+      </c>
+      <c r="D25">
+        <v>0.84931506849315097</v>
+      </c>
+      <c r="E25">
+        <v>0.27841726618704998</v>
+      </c>
+      <c r="F25">
+        <v>6.2496161012445602E-2</v>
+      </c>
+      <c r="G25">
+        <v>5.8215962441314599E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.31715652768284303</v>
+      </c>
+      <c r="D26">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="E26">
+        <v>0.290647482014389</v>
+      </c>
+      <c r="F26">
+        <v>5.4292451978591498E-2</v>
+      </c>
+      <c r="G26">
+        <v>5.7361376673040199E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.26</v>
+      </c>
+      <c r="C27">
+        <v>0.328776486671224</v>
+      </c>
+      <c r="D27">
+        <v>0.82191780821917804</v>
+      </c>
+      <c r="E27">
+        <v>0.30287769784172702</v>
+      </c>
+      <c r="F27">
+        <v>5.9486062703096698E-2</v>
+      </c>
+      <c r="G27">
+        <v>5.8309037900874598E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.27</v>
+      </c>
+      <c r="C28">
+        <v>0.34381408065618602</v>
+      </c>
+      <c r="D28">
+        <v>0.80821917808219201</v>
+      </c>
+      <c r="E28">
+        <v>0.31942446043165501</v>
+      </c>
+      <c r="F28">
+        <v>5.9931098163142398E-2</v>
+      </c>
+      <c r="G28">
+        <v>5.8706467661691498E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C29">
+        <v>0.35406698564593297</v>
+      </c>
+      <c r="D29">
+        <v>0.78082191780821897</v>
+      </c>
+      <c r="E29">
+        <v>0.33165467625899298</v>
+      </c>
+      <c r="F29">
+        <v>5.2243629405282703E-2</v>
+      </c>
+      <c r="G29">
+        <v>5.7809330628803203E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C30">
+        <v>0.36226930963773102</v>
+      </c>
+      <c r="D30">
+        <v>0.76712328767123295</v>
+      </c>
+      <c r="E30">
+        <v>0.34100719424460402</v>
+      </c>
+      <c r="F30">
+        <v>4.9858945630711797E-2</v>
+      </c>
+      <c r="G30">
+        <v>5.7613168724279802E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.3</v>
+      </c>
+      <c r="C31">
+        <v>0.37525632262474401</v>
+      </c>
+      <c r="D31">
+        <v>0.76712328767123295</v>
+      </c>
+      <c r="E31">
+        <v>0.35467625899280603</v>
+      </c>
+      <c r="F31">
+        <v>5.5652280279169901E-2</v>
+      </c>
+      <c r="G31">
+        <v>5.8761804826862503E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.31</v>
+      </c>
+      <c r="C32">
+        <v>0.383458646616541</v>
+      </c>
+      <c r="D32">
+        <v>0.76712328767123295</v>
+      </c>
+      <c r="E32">
+        <v>0.36330935251798602</v>
+      </c>
+      <c r="F32">
+        <v>5.92823010147479E-2</v>
+      </c>
+      <c r="G32">
+        <v>5.9511158342189202E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.32</v>
+      </c>
+      <c r="C33">
+        <v>0.392344497607655</v>
+      </c>
+      <c r="D33">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="E33">
+        <v>0.37410071942445999</v>
+      </c>
+      <c r="F33">
+        <v>5.1378661483064102E-2</v>
+      </c>
+      <c r="G33">
+        <v>5.8441558441558399E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.33</v>
+      </c>
+      <c r="C34">
+        <v>0.39849624060150401</v>
+      </c>
+      <c r="D34">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="E34">
+        <v>0.380575539568345</v>
+      </c>
+      <c r="F34">
+        <v>5.41176946778677E-2</v>
+      </c>
+      <c r="G34">
+        <v>5.9016393442623001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.34</v>
+      </c>
+      <c r="C35">
+        <v>0.41011619958988399</v>
+      </c>
+      <c r="D35">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="E35">
+        <v>0.39280575539568302</v>
+      </c>
+      <c r="F35">
+        <v>5.9268846908029998E-2</v>
+      </c>
+      <c r="G35">
+        <v>6.0133630289532301E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.35</v>
+      </c>
+      <c r="C36">
+        <v>0.420369104579631</v>
+      </c>
+      <c r="D36">
+        <v>0.73972602739726001</v>
+      </c>
+      <c r="E36">
+        <v>0.403597122302158</v>
+      </c>
+      <c r="F36">
+        <v>6.37956145451304E-2</v>
+      </c>
+      <c r="G36">
+        <v>6.1155152887882203E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.36</v>
+      </c>
+      <c r="C37">
+        <v>0.43062200956937802</v>
+      </c>
+      <c r="D37">
+        <v>0.72602739726027399</v>
+      </c>
+      <c r="E37">
+        <v>0.41510791366906502</v>
+      </c>
+      <c r="F37">
+        <v>6.2525677029559704E-2</v>
+      </c>
+      <c r="G37">
+        <v>6.1200923787528901E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.37</v>
+      </c>
+      <c r="C38">
+        <v>0.43609022556390997</v>
+      </c>
+      <c r="D38">
+        <v>0.72602739726027399</v>
+      </c>
+      <c r="E38">
+        <v>0.42086330935251798</v>
+      </c>
+      <c r="F38">
+        <v>6.4944416461346605E-2</v>
+      </c>
+      <c r="G38">
+        <v>6.1771561771561803E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.38</v>
+      </c>
+      <c r="C39">
+        <v>0.44155844155844198</v>
+      </c>
+      <c r="D39">
+        <v>0.72602739726027399</v>
+      </c>
+      <c r="E39">
+        <v>0.42661870503597099</v>
+      </c>
+      <c r="F39">
+        <v>6.7361980834055202E-2</v>
+      </c>
+      <c r="G39">
+        <v>6.2352941176470597E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.39</v>
+      </c>
+      <c r="C40">
+        <v>0.451811346548189</v>
+      </c>
+      <c r="D40">
+        <v>0.71232876712328796</v>
+      </c>
+      <c r="E40">
+        <v>0.43812949640287802</v>
+      </c>
+      <c r="F40">
+        <v>6.6159482571998496E-2</v>
+      </c>
+      <c r="G40">
+        <v>6.2424969987995203E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <v>0.46069719753930299</v>
+      </c>
+      <c r="D41">
+        <v>0.69863013698630105</v>
+      </c>
+      <c r="E41">
+        <v>0.448201438848921</v>
+      </c>
+      <c r="F41">
+        <v>6.4391980195742396E-2</v>
+      </c>
+      <c r="G41">
+        <v>6.2347188264058703E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.41</v>
+      </c>
+      <c r="C42">
+        <v>0.47368421052631599</v>
+      </c>
+      <c r="D42">
+        <v>0.69863013698630105</v>
+      </c>
+      <c r="E42">
+        <v>0.46187050359712201</v>
+      </c>
+      <c r="F42">
+        <v>7.0192089517840506E-2</v>
+      </c>
+      <c r="G42">
+        <v>6.3829787234042507E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.42</v>
+      </c>
+      <c r="C43">
+        <v>0.48257006151742998</v>
+      </c>
+      <c r="D43">
+        <v>0.69863013698630105</v>
+      </c>
+      <c r="E43">
+        <v>0.47122302158273399</v>
+      </c>
+      <c r="F43">
+        <v>7.4171463824466502E-2</v>
+      </c>
+      <c r="G43">
+        <v>6.4885496183206104E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.43</v>
+      </c>
+      <c r="C44">
+        <v>0.49213943950786099</v>
+      </c>
+      <c r="D44">
+        <v>0.67123287671232901</v>
+      </c>
+      <c r="E44">
+        <v>0.48273381294964002</v>
+      </c>
+      <c r="F44">
+        <v>6.7130918643453205E-2</v>
+      </c>
+      <c r="G44">
+        <v>6.3802083333333301E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.44</v>
+      </c>
+      <c r="C45">
+        <v>0.49829118250170901</v>
+      </c>
+      <c r="D45">
+        <v>0.67123287671232901</v>
+      </c>
+      <c r="E45">
+        <v>0.48920863309352502</v>
+      </c>
+      <c r="F45">
+        <v>6.9916286422137805E-2</v>
+      </c>
+      <c r="G45">
+        <v>6.4558629776021101E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.45</v>
+      </c>
+      <c r="C46">
+        <v>0.51469583048530398</v>
+      </c>
+      <c r="D46">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="E46">
+        <v>0.50719424460431695</v>
+      </c>
+      <c r="F46">
+        <v>7.1733848851499193E-2</v>
+      </c>
+      <c r="G46">
+        <v>6.5484311050477501E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.46</v>
+      </c>
+      <c r="C47">
+        <v>0.52221462747778502</v>
+      </c>
+      <c r="D47">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="E47">
+        <v>0.51510791366906505</v>
+      </c>
+      <c r="F47">
+        <v>7.5186174624420593E-2</v>
+      </c>
+      <c r="G47">
+        <v>6.6481994459833799E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.47</v>
+      </c>
+      <c r="C48">
+        <v>0.533834586466165</v>
+      </c>
+      <c r="D48">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="E48">
+        <v>0.52733812949640302</v>
+      </c>
+      <c r="F48">
+        <v>8.0558559514955302E-2</v>
+      </c>
+      <c r="G48">
+        <v>6.8085106382978697E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.48</v>
+      </c>
+      <c r="C49">
+        <v>0.548188653451811</v>
+      </c>
+      <c r="D49">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="E49">
+        <v>0.54244604316546796</v>
+      </c>
+      <c r="F49">
+        <v>8.7268848140496097E-2</v>
+      </c>
+      <c r="G49">
+        <v>7.0175438596491196E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.49</v>
+      </c>
+      <c r="C50">
+        <v>0.56185919343814095</v>
+      </c>
+      <c r="D50">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="E50">
+        <v>0.55683453237410097</v>
+      </c>
+      <c r="F50">
+        <v>9.3750358049371693E-2</v>
+      </c>
+      <c r="G50">
+        <v>7.2289156626505993E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <v>0.56937799043062198</v>
+      </c>
+      <c r="D51">
+        <v>0.65753424657534199</v>
+      </c>
+      <c r="E51">
+        <v>0.56474820143884896</v>
+      </c>
+      <c r="F51">
+        <v>9.7358730242795496E-2</v>
+      </c>
+      <c r="G51">
+        <v>7.3506891271056696E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.51</v>
+      </c>
+      <c r="C52">
+        <v>0.58373205741626799</v>
+      </c>
+      <c r="D52">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="E52">
+        <v>0.58057553956834496</v>
+      </c>
+      <c r="F52">
+        <v>9.8678036133292499E-2</v>
+      </c>
+      <c r="G52">
+        <v>7.4603174603174602E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.52</v>
+      </c>
+      <c r="C53">
+        <v>0.593301435406699</v>
+      </c>
+      <c r="D53">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="E53">
+        <v>0.59064748201438799</v>
+      </c>
+      <c r="F53">
+        <v>0.10340661294440701</v>
+      </c>
+      <c r="G53">
+        <v>7.6298701298701296E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.53</v>
+      </c>
+      <c r="C54">
+        <v>0.59671907040328098</v>
+      </c>
+      <c r="D54">
+        <v>0.63013698630137005</v>
+      </c>
+      <c r="E54">
+        <v>0.59496402877697796</v>
+      </c>
+      <c r="F54">
+        <v>9.9427999613107595E-2</v>
+      </c>
+      <c r="G54">
+        <v>7.5533661740558297E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.54</v>
+      </c>
+      <c r="C55">
+        <v>0.602870813397129</v>
+      </c>
+      <c r="D55">
+        <v>0.61643835616438403</v>
+      </c>
+      <c r="E55">
+        <v>0.60215827338129502</v>
+      </c>
+      <c r="F55">
+        <v>9.6817451338401E-2</v>
+      </c>
+      <c r="G55">
+        <v>7.5250836120401302E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C56">
+        <v>0.60902255639097702</v>
+      </c>
+      <c r="D56">
+        <v>0.61643835616438403</v>
+      </c>
+      <c r="E56">
+        <v>0.60863309352518002</v>
+      </c>
+      <c r="F56">
+        <v>9.9925395239751705E-2</v>
+      </c>
+      <c r="G56">
+        <v>7.6400679117147693E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C57">
+        <v>0.61859193438140803</v>
+      </c>
+      <c r="D57">
+        <v>0.61643835616438403</v>
+      </c>
+      <c r="E57">
+        <v>0.61870503597122295</v>
+      </c>
+      <c r="F57">
+        <v>0.104824114866248</v>
+      </c>
+      <c r="G57">
+        <v>7.8260869565217397E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C58">
+        <v>0.62747778537252197</v>
+      </c>
+      <c r="D58">
+        <v>0.61643835616438403</v>
+      </c>
+      <c r="E58">
+        <v>0.62805755395683405</v>
+      </c>
+      <c r="F58">
+        <v>0.10944851555844499</v>
+      </c>
+      <c r="G58">
+        <v>8.0071174377224205E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C59">
+        <v>0.63841421736158599</v>
+      </c>
+      <c r="D59">
+        <v>0.61643835616438403</v>
+      </c>
+      <c r="E59">
+        <v>0.63956834532374096</v>
+      </c>
+      <c r="F59">
+        <v>0.115249533190506</v>
+      </c>
+      <c r="G59">
+        <v>8.2417582417582402E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.59</v>
+      </c>
+      <c r="C60">
+        <v>0.65003417634996596</v>
+      </c>
+      <c r="D60">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="E60">
+        <v>0.65323741007194203</v>
+      </c>
+      <c r="F60">
+        <v>0.10997719689598</v>
+      </c>
+      <c r="G60">
+        <v>8.1904761904761897E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.6</v>
+      </c>
+      <c r="C61">
+        <v>0.66165413533834605</v>
+      </c>
+      <c r="D61">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="E61">
+        <v>0.66546762589928099</v>
+      </c>
+      <c r="F61">
+        <v>0.116395973794387</v>
+      </c>
+      <c r="G61">
+        <v>8.4645669291338599E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.61</v>
+      </c>
+      <c r="C62">
+        <v>0.67259056732740896</v>
+      </c>
+      <c r="D62">
+        <v>0.58904109589041098</v>
+      </c>
+      <c r="E62">
+        <v>0.67697841726618702</v>
+      </c>
+      <c r="F62">
+        <v>0.122599911919945</v>
+      </c>
+      <c r="G62">
+        <v>8.7398373983739799E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.62</v>
+      </c>
+      <c r="C63">
+        <v>0.67805878332194103</v>
+      </c>
+      <c r="D63">
+        <v>0.56164383561643805</v>
+      </c>
+      <c r="E63">
+        <v>0.68417266187050396</v>
+      </c>
+      <c r="F63">
+        <v>0.113994127511862</v>
+      </c>
+      <c r="G63">
+        <v>8.5416666666666696E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.63</v>
+      </c>
+      <c r="C64">
+        <v>0.68762816131237203</v>
+      </c>
+      <c r="D64">
+        <v>0.56164383561643805</v>
+      </c>
+      <c r="E64">
+        <v>0.694244604316547</v>
+      </c>
+      <c r="F64">
+        <v>0.11958561992898201</v>
+      </c>
+      <c r="G64">
+        <v>8.7982832618025794E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0.64</v>
+      </c>
+      <c r="C65">
+        <v>0.69788106630211899</v>
+      </c>
+      <c r="D65">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="E65">
+        <v>0.70575539568345302</v>
+      </c>
+      <c r="F65">
+        <v>0.119770035561478</v>
+      </c>
+      <c r="G65">
+        <v>8.9086859688196005E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>0.65</v>
+      </c>
+      <c r="C66">
+        <v>0.70539986329460003</v>
+      </c>
+      <c r="D66">
+        <v>0.534246575342466</v>
+      </c>
+      <c r="E66">
+        <v>0.71438848920863296</v>
+      </c>
+      <c r="F66">
+        <v>0.118359395971359</v>
+      </c>
+      <c r="G66">
+        <v>8.9449541284403702E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>0.66</v>
+      </c>
+      <c r="C67">
+        <v>0.71496924128503103</v>
+      </c>
+      <c r="D67">
+        <v>0.52054794520547898</v>
+      </c>
+      <c r="E67">
+        <v>0.72517985611510805</v>
+      </c>
+      <c r="F67">
+        <v>0.118265024349564</v>
+      </c>
+      <c r="G67">
+        <v>9.0476190476190502E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>0.67</v>
+      </c>
+      <c r="C68">
+        <v>0.72248803827751196</v>
+      </c>
+      <c r="D68">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E68">
+        <v>0.73381294964028798</v>
+      </c>
+      <c r="F68">
+        <v>0.11693584699739799</v>
+      </c>
+      <c r="G68">
+        <v>9.0909090909090898E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0.68</v>
+      </c>
+      <c r="C69">
+        <v>0.72863978127135998</v>
+      </c>
+      <c r="D69">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E69">
+        <v>0.74028776978417299</v>
+      </c>
+      <c r="F69">
+        <v>0.12091784813742</v>
+      </c>
+      <c r="G69">
+        <v>9.2964824120603001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>0.69</v>
+      </c>
+      <c r="C70">
+        <v>0.74162679425837297</v>
+      </c>
+      <c r="D70">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E70">
+        <v>0.75395683453237405</v>
+      </c>
+      <c r="F70">
+        <v>0.12961414864825099</v>
+      </c>
+      <c r="G70">
+        <v>9.7625329815303405E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>0.7</v>
+      </c>
+      <c r="C71">
+        <v>0.74982911825017096</v>
+      </c>
+      <c r="D71">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E71">
+        <v>0.76258992805755399</v>
+      </c>
+      <c r="F71">
+        <v>0.13532915523946301</v>
+      </c>
+      <c r="G71">
+        <v>0.100817438692098</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>0.71</v>
+      </c>
+      <c r="C72">
+        <v>0.76144907723855104</v>
+      </c>
+      <c r="D72">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E72">
+        <v>0.77482014388489195</v>
+      </c>
+      <c r="F72">
+        <v>0.14375633278174199</v>
+      </c>
+      <c r="G72">
+        <v>0.105714285714286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>0.72</v>
+      </c>
+      <c r="C73">
+        <v>0.76623376623376604</v>
+      </c>
+      <c r="D73">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E73">
+        <v>0.77985611510791397</v>
+      </c>
+      <c r="F73">
+        <v>0.147349503683122</v>
+      </c>
+      <c r="G73">
+        <v>0.107871720116618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>0.73</v>
+      </c>
+      <c r="C74">
+        <v>0.77306903622693102</v>
+      </c>
+      <c r="D74">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E74">
+        <v>0.78705035971223003</v>
+      </c>
+      <c r="F74">
+        <v>0.15261829490706699</v>
+      </c>
+      <c r="G74">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>0.74</v>
+      </c>
+      <c r="C75">
+        <v>0.78195488721804496</v>
+      </c>
+      <c r="D75">
+        <v>0.50684931506849296</v>
+      </c>
+      <c r="E75">
+        <v>0.79640287769784202</v>
+      </c>
+      <c r="F75">
+        <v>0.15972565424107299</v>
+      </c>
+      <c r="G75">
+        <v>0.11562500000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>0.75</v>
+      </c>
+      <c r="C76">
+        <v>0.79015721120984295</v>
+      </c>
+      <c r="D76">
+        <v>0.47945205479452102</v>
+      </c>
+      <c r="E76">
+        <v>0.80647482014388505</v>
+      </c>
+      <c r="F76">
+        <v>0.15344237008669001</v>
+      </c>
+      <c r="G76">
+        <v>0.115131578947368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>0.76</v>
+      </c>
+      <c r="C77">
+        <v>0.80177717019822303</v>
+      </c>
+      <c r="D77">
+        <v>0.47945205479452102</v>
+      </c>
+      <c r="E77">
+        <v>0.81870503597122302</v>
+      </c>
+      <c r="F77">
+        <v>0.163481782050025</v>
+      </c>
+      <c r="G77">
+        <v>0.12195121951219499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>0.77</v>
+      </c>
+      <c r="C78">
+        <v>0.81066302118933697</v>
+      </c>
+      <c r="D78">
+        <v>0.465753424657534</v>
+      </c>
+      <c r="E78">
+        <v>0.82877697841726605</v>
+      </c>
+      <c r="F78">
+        <v>0.164838490624831</v>
+      </c>
+      <c r="G78">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>0.78</v>
+      </c>
+      <c r="C79">
+        <v>0.82433356117566603</v>
+      </c>
+      <c r="D79">
+        <v>0.465753424657534</v>
+      </c>
+      <c r="E79">
+        <v>0.84316546762589895</v>
+      </c>
+      <c r="F79">
+        <v>0.17813159520100399</v>
+      </c>
+      <c r="G79">
+        <v>0.134920634920635</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>0.79</v>
+      </c>
+      <c r="C80">
+        <v>0.83458646616541399</v>
+      </c>
+      <c r="D80">
+        <v>0.45205479452054798</v>
+      </c>
+      <c r="E80">
+        <v>0.85467625899280597</v>
+      </c>
+      <c r="F80">
+        <v>0.18188356664719901</v>
+      </c>
+      <c r="G80">
+        <v>0.14042553191489399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>0.8</v>
+      </c>
+      <c r="C81">
+        <v>0.84552289815447701</v>
+      </c>
+      <c r="D81">
+        <v>0.43835616438356201</v>
+      </c>
+      <c r="E81">
+        <v>0.86690647482014405</v>
+      </c>
+      <c r="F81">
+        <v>0.18700516286907201</v>
+      </c>
+      <c r="G81">
+        <v>0.14746543778801799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>0.81</v>
+      </c>
+      <c r="C82">
+        <v>0.85645933014354103</v>
+      </c>
+      <c r="D82">
+        <v>0.397260273972603</v>
+      </c>
+      <c r="E82">
+        <v>0.880575539568345</v>
+      </c>
+      <c r="F82">
+        <v>0.177983656257967</v>
+      </c>
+      <c r="G82">
+        <v>0.14871794871794899</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>0.82</v>
+      </c>
+      <c r="C83">
+        <v>0.85919343814080695</v>
+      </c>
+      <c r="D83">
+        <v>0.38356164383561597</v>
+      </c>
+      <c r="E83">
+        <v>0.88417266187050403</v>
+      </c>
+      <c r="F83">
+        <v>0.17380298718581899</v>
+      </c>
+      <c r="G83">
+        <v>0.148148148148148</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>0.83</v>
+      </c>
+      <c r="C84">
+        <v>0.86671223513328799</v>
+      </c>
+      <c r="D84">
+        <v>0.38356164383561597</v>
+      </c>
+      <c r="E84">
+        <v>0.89208633093525203</v>
+      </c>
+      <c r="F84">
+        <v>0.18359551645911301</v>
+      </c>
+      <c r="G84">
+        <v>0.15730337078651699</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>0.84</v>
+      </c>
+      <c r="C85">
+        <v>0.87286397812713601</v>
+      </c>
+      <c r="D85">
+        <v>0.35616438356164398</v>
+      </c>
+      <c r="E85">
+        <v>0.9</v>
+      </c>
+      <c r="F85">
+        <v>0.176322712489658</v>
+      </c>
+      <c r="G85">
+        <v>0.15757575757575801</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.85</v>
+      </c>
+      <c r="C86">
+        <v>0.88243335611756701</v>
+      </c>
+      <c r="D86">
+        <v>0.35616438356164398</v>
+      </c>
+      <c r="E86">
+        <v>0.91007194244604295</v>
+      </c>
+      <c r="F86">
+        <v>0.19053762630283499</v>
+      </c>
+      <c r="G86">
+        <v>0.17218543046357601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.86</v>
+      </c>
+      <c r="C87">
+        <v>0.89336978810663004</v>
+      </c>
+      <c r="D87">
+        <v>0.32876712328767099</v>
+      </c>
+      <c r="E87">
+        <v>0.92302158273381296</v>
+      </c>
+      <c r="F87">
+        <v>0.192007112212948</v>
+      </c>
+      <c r="G87">
+        <v>0.18320610687022901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>0.87</v>
+      </c>
+      <c r="C88">
+        <v>0.90088858509911096</v>
+      </c>
+      <c r="D88">
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="E88">
+        <v>0.93381294964028805</v>
+      </c>
+      <c r="F88">
+        <v>0.17015608769240201</v>
+      </c>
+      <c r="G88">
+        <v>0.17857142857142899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>0.88</v>
+      </c>
+      <c r="C89">
+        <v>0.90977443609022601</v>
+      </c>
+      <c r="D89">
+        <v>0.26027397260273999</v>
+      </c>
+      <c r="E89">
+        <v>0.94388489208633097</v>
+      </c>
+      <c r="F89">
+        <v>0.17865939350367799</v>
+      </c>
+      <c r="G89">
+        <v>0.19587628865979401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>0.89</v>
+      </c>
+      <c r="C90">
+        <v>0.917976760082023</v>
+      </c>
+      <c r="D90">
+        <v>0.219178082191781</v>
+      </c>
+      <c r="E90">
+        <v>0.95467625899280595</v>
+      </c>
+      <c r="F90">
+        <v>0.16748378964109101</v>
+      </c>
+      <c r="G90">
+        <v>0.20253164556962</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>0.9</v>
+      </c>
+      <c r="C91">
+        <v>0.92344497607655496</v>
+      </c>
+      <c r="D91">
+        <v>0.164383561643836</v>
+      </c>
+      <c r="E91">
+        <v>0.963309352517986</v>
+      </c>
+      <c r="F91">
+        <v>0.13696239320290601</v>
+      </c>
+      <c r="G91">
+        <v>0.19047619047618999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>0.91</v>
+      </c>
+      <c r="C92">
+        <v>0.92891319207108702</v>
+      </c>
+      <c r="D92">
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="E92">
+        <v>0.97050359712230205</v>
+      </c>
+      <c r="F92">
+        <v>0.12759511466911599</v>
+      </c>
+      <c r="G92">
+        <v>0.19607843137254899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>0.92</v>
+      </c>
+      <c r="C93">
+        <v>0.93369788106630203</v>
+      </c>
+      <c r="D93">
+        <v>0.123287671232877</v>
+      </c>
+      <c r="E93">
+        <v>0.97625899280575501</v>
+      </c>
+      <c r="F93">
+        <v>0.12979975022798701</v>
+      </c>
+      <c r="G93">
+        <v>0.214285714285714</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>0.93</v>
+      </c>
+      <c r="C94">
+        <v>0.94121667805878295</v>
+      </c>
+      <c r="D94">
+        <v>0.123287671232877</v>
+      </c>
+      <c r="E94">
+        <v>0.98417266187050401</v>
+      </c>
+      <c r="F94">
+        <v>0.16246681129391999</v>
+      </c>
+      <c r="G94">
+        <v>0.29032258064516098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>0.94</v>
+      </c>
+      <c r="C95">
+        <v>0.94873547505126499</v>
+      </c>
+      <c r="D95">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="E95">
+        <v>0.99424460431654704</v>
+      </c>
+      <c r="F95">
+        <v>0.170950651261734</v>
+      </c>
+      <c r="G95">
+        <v>0.42857142857142899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>0.95</v>
+      </c>
+      <c r="C96">
+        <v>0.94873547505126499</v>
+      </c>
+      <c r="D96">
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="E96">
+        <v>0.99496402877697798</v>
+      </c>
+      <c r="F96">
+        <v>0.1531881832575</v>
+      </c>
+      <c r="G96">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>0.96</v>
+      </c>
+      <c r="C97">
+        <v>0.95078605604921396</v>
+      </c>
+      <c r="D97">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0.114122764587079</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>0.97</v>
+      </c>
+      <c r="C98">
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G98">
+        <v>4.9897470950102503E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>0.98</v>
+      </c>
+      <c r="C99">
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G99">
+        <v>4.9897470950102503E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>0.99</v>
+      </c>
+      <c r="C100">
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G100">
+        <v>4.9897470950102503E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Code/R/Magnan/AntigenPro_IT.xlsx
+++ b/Code/R/Magnan/AntigenPro_IT.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="1476">
   <si>
     <t>ID</t>
   </si>
@@ -4442,6 +4442,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>&lt;-- DEFAULT THRESHOLD</t>
   </si>
 </sst>
 </file>
@@ -6887,23 +6890,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="85821312"/>
-        <c:axId val="85822848"/>
+        <c:axId val="59692160"/>
+        <c:axId val="59694080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85821312"/>
+        <c:axId val="59692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85822848"/>
+        <c:crossAx val="59694080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85822848"/>
+        <c:axId val="59694080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6911,7 +6914,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85821312"/>
+        <c:crossAx val="59692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6924,7 +6927,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -24205,10 +24208,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G100"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25314,7 +25320,7 @@
         <v>6.8085106382978697E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
@@ -25337,7 +25343,7 @@
         <v>7.0175438596491196E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
@@ -25360,30 +25366,33 @@
         <v>7.2289156626505993E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
+    <row r="51" spans="1:8" s="2" customFormat="1">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>0.5</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>0.56937799043062198</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>0.65753424657534199</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>0.56474820143884896</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>9.7358730242795496E-2</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>7.3506891271056696E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="2" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>51</v>
       </c>
@@ -25406,7 +25415,7 @@
         <v>7.4603174603174602E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>52</v>
       </c>
@@ -25429,7 +25438,7 @@
         <v>7.6298701298701296E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>53</v>
       </c>
@@ -25452,7 +25461,7 @@
         <v>7.5533661740558297E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>54</v>
       </c>
@@ -25475,7 +25484,7 @@
         <v>7.5250836120401302E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
@@ -25498,7 +25507,7 @@
         <v>7.6400679117147693E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
@@ -25521,7 +25530,7 @@
         <v>7.8260869565217397E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
@@ -25544,7 +25553,7 @@
         <v>8.0071174377224205E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>58</v>
       </c>
@@ -25567,7 +25576,7 @@
         <v>8.2417582417582402E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
@@ -25590,7 +25599,7 @@
         <v>8.1904761904761897E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
@@ -25613,7 +25622,7 @@
         <v>8.4645669291338599E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
@@ -25636,7 +25645,7 @@
         <v>8.7398373983739799E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
@@ -25659,7 +25668,7 @@
         <v>8.5416666666666696E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>

--- a/Code/R/Magnan/AntigenPro_IT.xlsx
+++ b/Code/R/Magnan/AntigenPro_IT.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="2" r:id="rId1"/>
     <sheet name="Enrichment" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="Performance" sheetId="5" r:id="rId4"/>
+    <sheet name="Performance" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -6890,23 +6889,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="59692160"/>
-        <c:axId val="59694080"/>
+        <c:axId val="70802048"/>
+        <c:axId val="70828416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59692160"/>
+        <c:axId val="70802048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59694080"/>
+        <c:crossAx val="70828416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59694080"/>
+        <c:axId val="70828416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6914,20 +6913,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59692160"/>
+        <c:crossAx val="70802048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -24196,18 +24194,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
